--- a/dane.xlsx
+++ b/dane.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="860" windowWidth="20040" windowHeight="15640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2360" yWindow="860" windowWidth="25200" windowHeight="15640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>LevenbergMarquardt</t>
   </si>
@@ -84,340 +84,52 @@
     <t>Średni czas wykonywania epoki</t>
   </si>
   <si>
-    <t>dla u = 0.1, B = 1.2</t>
+    <t>Bład walidacji</t>
   </si>
   <si>
-    <t>bład uczacy</t>
+    <t>dla u = 0,1, B = 1,2</t>
   </si>
   <si>
-    <t>błąd walidujacy</t>
+    <t>dla u = 0,1, B = 2,4</t>
   </si>
   <si>
-    <t>czas epoki</t>
+    <t>dla u = 0,2, B = 1,2</t>
   </si>
   <si>
-    <t>% popraw skl</t>
+    <t>dla u = 0,05, B = 2,4</t>
   </si>
   <si>
-    <t>próba:</t>
+    <t>Czas wykonywania epoki</t>
   </si>
   <si>
-    <t>0.16664</t>
+    <t>Model 1, próba 1</t>
   </si>
   <si>
-    <t>0.24294</t>
+    <t xml:space="preserve">Model 1, próba 2 </t>
   </si>
   <si>
-    <t>44.22</t>
+    <t>Model 1, próba 3</t>
   </si>
   <si>
-    <t>0.11367</t>
+    <t>Model 2, próba 1</t>
   </si>
   <si>
-    <t>0.11083</t>
+    <t>Model 2, próba 2</t>
   </si>
   <si>
-    <t>72.44</t>
+    <t>Model 2, próba 3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18956 </t>
+    <t>Model 3, próba 1</t>
   </si>
   <si>
-    <t>0.18704</t>
+    <t>Model 3, próba 2</t>
   </si>
   <si>
-    <t>47.98</t>
+    <t>Model 3, próba 3</t>
   </si>
   <si>
-    <t xml:space="preserve"> sig</t>
-  </si>
-  <si>
-    <t>0.074994</t>
-  </si>
-  <si>
-    <t>0.083881</t>
-  </si>
-  <si>
-    <t>84.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.070427</t>
-  </si>
-  <si>
-    <t>0.06462</t>
-  </si>
-  <si>
-    <t>87.28</t>
-  </si>
-  <si>
-    <t>77.48</t>
-  </si>
-  <si>
-    <t>0.098868</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.090581</t>
-  </si>
-  <si>
-    <t>5 ukryta sig &gt; linear</t>
-  </si>
-  <si>
-    <t>5 ukryta sig &gt; 5 ukryta sig &gt; linear</t>
-  </si>
-  <si>
-    <t>0.046949</t>
-  </si>
-  <si>
-    <t>0.038578</t>
-  </si>
-  <si>
-    <t>89.88</t>
-  </si>
-  <si>
-    <t>0.024355</t>
-  </si>
-  <si>
-    <t>0.019942</t>
-  </si>
-  <si>
-    <t>96.82</t>
-  </si>
-  <si>
-    <t>0.062683</t>
-  </si>
-  <si>
-    <t>0.052941</t>
-  </si>
-  <si>
-    <t>91.62</t>
-  </si>
-  <si>
-    <t>dla u = 0.1, B = 2.4</t>
-  </si>
-  <si>
-    <t>0.42192</t>
-  </si>
-  <si>
-    <t>0.23576</t>
-  </si>
-  <si>
-    <t>48.84</t>
-  </si>
-  <si>
-    <t>0.15199</t>
-  </si>
-  <si>
-    <t>0.14863</t>
-  </si>
-  <si>
-    <t>58.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.051604 </t>
-  </si>
-  <si>
-    <t>0.044357</t>
-  </si>
-  <si>
-    <t>90.75</t>
-  </si>
-  <si>
-    <t>0.11885</t>
-  </si>
-  <si>
-    <t>0.11842</t>
-  </si>
-  <si>
-    <t>76.59</t>
-  </si>
-  <si>
-    <t>0.1172</t>
-  </si>
-  <si>
-    <t>0.10727</t>
-  </si>
-  <si>
-    <t>0.16672</t>
-  </si>
-  <si>
-    <t>0.13604</t>
-  </si>
-  <si>
-    <t>68.50</t>
-  </si>
-  <si>
-    <t>0.21096</t>
-  </si>
-  <si>
-    <t>0.21389</t>
-  </si>
-  <si>
-    <t>34.39</t>
-  </si>
-  <si>
-    <t>0.12135</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.11489</t>
-  </si>
-  <si>
-    <t>69.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.12875</t>
-  </si>
-  <si>
-    <t>0.11994</t>
-  </si>
-  <si>
-    <t>dla u = 0.2, B = 1.2</t>
-  </si>
-  <si>
-    <t>0.049633</t>
-  </si>
-  <si>
-    <t>0.045283</t>
-  </si>
-  <si>
-    <t>92.77</t>
-  </si>
-  <si>
-    <t>0.057878</t>
-  </si>
-  <si>
-    <t>0.050103</t>
-  </si>
-  <si>
-    <t>86.71</t>
-  </si>
-  <si>
-    <t>0.029614</t>
-  </si>
-  <si>
-    <t>0.023305</t>
-  </si>
-  <si>
-    <t>95.66</t>
-  </si>
-  <si>
-    <t>0.071735</t>
-  </si>
-  <si>
-    <t>0.064445</t>
-  </si>
-  <si>
-    <t>87.88</t>
-  </si>
-  <si>
-    <t>0.098655</t>
-  </si>
-  <si>
-    <t>0.08984</t>
-  </si>
-  <si>
-    <t>75.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.11418</t>
-  </si>
-  <si>
-    <t>0.075046</t>
-  </si>
-  <si>
-    <t>85.71</t>
-  </si>
-  <si>
-    <t>0.13328</t>
-  </si>
-  <si>
-    <t>0.13118</t>
-  </si>
-  <si>
-    <t>69.65</t>
-  </si>
-  <si>
-    <t>0.21454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1981 </t>
-  </si>
-  <si>
-    <t>0.44138</t>
-  </si>
-  <si>
-    <t>0.38428</t>
-  </si>
-  <si>
-    <t>dla u = 0.05, B = 2.4</t>
-  </si>
-  <si>
-    <t>0.14084</t>
-  </si>
-  <si>
-    <t>0.096377</t>
-  </si>
-  <si>
-    <t>71.97</t>
-  </si>
-  <si>
-    <t>0.15053</t>
-  </si>
-  <si>
-    <t>0.14916</t>
-  </si>
-  <si>
-    <t>69.94</t>
-  </si>
-  <si>
-    <t>0.15024</t>
-  </si>
-  <si>
-    <t>0.14951</t>
-  </si>
-  <si>
-    <t>0.13607</t>
-  </si>
-  <si>
-    <t>0.13518</t>
-  </si>
-  <si>
-    <t>0.15522</t>
-  </si>
-  <si>
-    <t>0.11216</t>
-  </si>
-  <si>
-    <t>67.73</t>
-  </si>
-  <si>
-    <t>0.13411</t>
-  </si>
-  <si>
-    <t>0.16302</t>
-  </si>
-  <si>
-    <t>68.73</t>
-  </si>
-  <si>
-    <t>0.13152</t>
-  </si>
-  <si>
-    <t>0.12915</t>
-  </si>
-  <si>
-    <t>0.31807</t>
-  </si>
-  <si>
-    <t>0.13624</t>
-  </si>
-  <si>
-    <t>60.92</t>
-  </si>
-  <si>
-    <t>0.15532</t>
-  </si>
-  <si>
-    <t>0.25787</t>
+    <t>Procent poprawnie sklasyfikowanych próbek</t>
   </si>
 </sst>
 </file>
@@ -479,8 +191,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -493,12 +215,22 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Norm." xfId="0" builtinId="0"/>
     <cellStyle name="Odwiedzone hiperłącze" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Odwiedzone hiperłącze" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1912,6 +1644,2320 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Test 1. Dla µ=0.1 oraz β=1.2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Błąd uczenia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Model 1, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 1, próba 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 1, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 2, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 2, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 2, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 3, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Model 3, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 3, próba 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.16664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.074994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.070427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.098868</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.046949</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.024355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.062683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bład walidacji</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Model 1, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 1, próba 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 1, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 2, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 2, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 2, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 3, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Model 3, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 3, próba 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.24294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.083881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.090581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.038578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.019942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.052941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-757737008"/>
+        <c:axId val="-730092176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-757737008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Próby</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-730092176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-730092176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błąd</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-757737008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.02"/>
+        <c:minorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test 2. Dla µ=0.1 oraz β=2.4</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Błącz uczenia</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$I$3:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Model 1, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 1, próba 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 1, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 2, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 2, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 2, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 3, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Model 3, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 3, próba 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$J$3:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.21096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11885</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.051604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Błąd walidacji</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$I$3:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Model 1, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 1, próba 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 1, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 2, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 2, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 2, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 3, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Model 3, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 3, próba 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$K$3:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.21389</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14863</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.044357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-880343696"/>
+        <c:axId val="-820210912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-880343696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Próba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-820210912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-820210912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błąd</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-880343696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test 3. Dla µ=0.2 oraz β=1.2</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Błąd uczenia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$P$3:$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Model 1, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 1, próba 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 1, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 2, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 2, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 2, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 3, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Model 3, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 3, próba 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$Q$3:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.071735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.098655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.049633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.057878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.029614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bład walidacji</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$P$3:$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Model 1, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 1, próba 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 1, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 2, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 2, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 2, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 3, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Model 3, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 3, próba 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$R$3:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.064445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.075046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.045283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.050103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.023305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1033125280"/>
+        <c:axId val="-950103536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1033125280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Próba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-950103536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-950103536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błąd</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1033125280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test 4. Dla µ=0.05 oraz β=2.4</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Błąd uczenia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$W$3:$W$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Model 1, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 1, próba 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 1, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 2, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 2, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 2, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 3, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Model 3, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 3, próba 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$X$3:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bład walidacji</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$W$3:$W$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Model 1, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 1, próba 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 1, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 2, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 2, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 2, próba 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 3, próba 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Model 3, próba 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 3, próba 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$Y$3:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.096377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-730287232"/>
+        <c:axId val="-730511360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-730287232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Próba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-730511360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-730511360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błąd</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-730287232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -2026,6 +4072,157 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -3557,6 +5754,2018 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3680,6 +7889,131 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>260902</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1007718</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138044</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176733</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>126602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Wykres 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1156890</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>186133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198437</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99217</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Wykres 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>859234</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>138907</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>39686</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Wykres 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4215,10 +8549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="B1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4227,244 +8561,222 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.1640625" customWidth="1"/>
+    <col min="22" max="22" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>81</v>
-      </c>
-      <c r="X1" t="s">
-        <v>107</v>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
+      <c r="C3">
+        <v>0.16664000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.24293999999999999</v>
       </c>
       <c r="E3">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="F3">
         <v>274</v>
       </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>0.21096000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.21389</v>
       </c>
       <c r="L3">
         <v>289</v>
       </c>
-      <c r="M3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>100</v>
-      </c>
-      <c r="R3" t="s">
-        <v>101</v>
+      <c r="M3">
+        <v>34.39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3">
+        <v>0.13328000000000001</v>
+      </c>
+      <c r="R3">
+        <v>0.13117999999999999</v>
       </c>
       <c r="S3">
         <v>296</v>
       </c>
-      <c r="T3" t="s">
-        <v>102</v>
-      </c>
-      <c r="V3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>125</v>
+      <c r="T3">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="W3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3">
+        <v>0.13152</v>
+      </c>
+      <c r="Y3">
+        <v>0.12914999999999999</v>
       </c>
       <c r="Z3">
         <v>259</v>
       </c>
-      <c r="AA3" t="s">
-        <v>113</v>
+      <c r="AA3">
+        <v>69.94</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>0.11366999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.11083</v>
       </c>
       <c r="E4">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="F4">
         <v>277</v>
       </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" t="s">
-        <v>77</v>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>0.12135</v>
+      </c>
+      <c r="K4">
+        <v>0.11489000000000001</v>
       </c>
       <c r="L4">
         <v>280</v>
       </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R4" t="s">
-        <v>104</v>
+      <c r="M4">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>0.21454000000000001</v>
+      </c>
+      <c r="R4">
+        <v>0.1981</v>
       </c>
       <c r="S4">
         <v>274</v>
       </c>
-      <c r="T4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>127</v>
+      <c r="T4">
+        <v>47.98</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>0.31807000000000002</v>
+      </c>
+      <c r="Y4">
+        <v>0.13624</v>
       </c>
       <c r="Z4">
         <v>259</v>
       </c>
-      <c r="AA4" t="s">
-        <v>128</v>
+      <c r="AA4">
+        <v>60.92</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>0.18956000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.18704000000000001</v>
       </c>
       <c r="E5">
+        <v>0.4798</v>
+      </c>
+      <c r="F5">
         <v>286</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <v>0.12875</v>
+      </c>
+      <c r="K5">
+        <v>0.11994</v>
       </c>
       <c r="L5">
         <v>280</v>
@@ -4472,14 +8784,14 @@
       <c r="M5">
         <v>73.489999999999995</v>
       </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" t="s">
-        <v>106</v>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5">
+        <v>0.44137999999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.38428000000000001</v>
       </c>
       <c r="S5">
         <v>272</v>
@@ -4487,14 +8799,14 @@
       <c r="T5" s="2">
         <v>4.41</v>
       </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>130</v>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5">
+        <v>0.15532000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.25786999999999999</v>
       </c>
       <c r="Z5">
         <v>326</v>
@@ -4503,527 +8815,380 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>7.4994000000000005E-2</v>
+      </c>
+      <c r="D6">
+        <v>8.3880999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="F6">
+        <v>566</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>0.11885</v>
+      </c>
+      <c r="K6">
+        <v>0.11842</v>
+      </c>
+      <c r="L6">
+        <v>693</v>
+      </c>
+      <c r="M6">
+        <v>76.59</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6">
+        <v>7.1734999999999993E-2</v>
+      </c>
+      <c r="R6">
+        <v>6.4445000000000002E-2</v>
+      </c>
+      <c r="S6">
+        <v>572</v>
+      </c>
+      <c r="T6">
+        <v>87.88</v>
+      </c>
+      <c r="W6" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6">
+        <v>0.13607</v>
+      </c>
+      <c r="Y6">
+        <v>0.13517999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>581</v>
+      </c>
+      <c r="AA6">
+        <v>69.94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>7.0427000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.4619999999999997E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="F7">
+        <v>562</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7">
+        <v>0.1172</v>
+      </c>
+      <c r="K7">
+        <v>0.10727</v>
+      </c>
+      <c r="L7">
+        <v>615</v>
+      </c>
+      <c r="M7">
+        <v>73.12</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7">
+        <v>9.8655000000000007E-2</v>
+      </c>
+      <c r="R7">
+        <v>8.9840000000000003E-2</v>
+      </c>
+      <c r="S7">
+        <v>575</v>
+      </c>
+      <c r="T7">
+        <v>75.14</v>
+      </c>
+      <c r="W7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7">
+        <v>0.15522</v>
+      </c>
+      <c r="Y7">
+        <v>0.11216</v>
+      </c>
+      <c r="Z7">
+        <v>590</v>
+      </c>
+      <c r="AA7">
+        <v>67.73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>9.8867999999999998E-2</v>
+      </c>
+      <c r="D8">
+        <v>9.0580999999999995E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="F8">
+        <v>605</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>0.16672000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.13603999999999999</v>
+      </c>
+      <c r="L8">
+        <v>592</v>
+      </c>
+      <c r="M8">
+        <v>68.5</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>0.11418</v>
+      </c>
+      <c r="R8">
+        <v>7.5046000000000002E-2</v>
+      </c>
+      <c r="S8">
+        <v>601</v>
+      </c>
+      <c r="T8">
+        <v>85.71</v>
       </c>
       <c r="W8" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="X8">
+        <v>0.13411000000000001</v>
+      </c>
+      <c r="Y8">
+        <v>0.16302</v>
+      </c>
+      <c r="Z8">
+        <v>583</v>
+      </c>
+      <c r="AA8">
+        <v>68.73</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>4.6948999999999998E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.8578000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>566</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="F9">
+        <v>906</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>0.42192000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.23576</v>
       </c>
       <c r="L9">
-        <v>693</v>
-      </c>
-      <c r="M9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" t="s">
-        <v>92</v>
+        <v>930</v>
+      </c>
+      <c r="M9">
+        <v>48.84</v>
+      </c>
+      <c r="P9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9">
+        <v>4.9632999999999997E-2</v>
+      </c>
+      <c r="R9">
+        <v>4.5282999999999997E-2</v>
       </c>
       <c r="S9">
-        <v>572</v>
-      </c>
-      <c r="T9" t="s">
-        <v>93</v>
-      </c>
-      <c r="V9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>117</v>
+        <v>900</v>
+      </c>
+      <c r="T9">
+        <v>92.77</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9">
+        <v>0.14083999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>9.6377000000000004E-2</v>
       </c>
       <c r="Z9">
-        <v>581</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>113</v>
+        <v>905</v>
+      </c>
+      <c r="AA9">
+        <v>71.97</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>2.4355000000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.9942000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>562</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>69</v>
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="F10">
+        <v>904</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>0.15198999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.14863000000000001</v>
       </c>
       <c r="L10">
-        <v>615</v>
+        <v>926</v>
       </c>
       <c r="M10">
-        <v>73.12</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>94</v>
-      </c>
-      <c r="R10" t="s">
-        <v>95</v>
+        <v>58.38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <v>5.7877999999999999E-2</v>
+      </c>
+      <c r="R10">
+        <v>5.0103000000000002E-2</v>
       </c>
       <c r="S10">
-        <v>575</v>
-      </c>
-      <c r="T10" t="s">
-        <v>96</v>
-      </c>
-      <c r="W10">
-        <v>2</v>
-      </c>
-      <c r="X10" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>119</v>
+        <v>911</v>
+      </c>
+      <c r="T10">
+        <v>86.71</v>
+      </c>
+      <c r="W10" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10">
+        <v>0.15053</v>
+      </c>
+      <c r="Y10">
+        <v>0.14915999999999999</v>
       </c>
       <c r="Z10">
-        <v>590</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>120</v>
+        <v>1000</v>
+      </c>
+      <c r="AA10">
+        <v>69.94</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>6.2683000000000003E-2</v>
+      </c>
+      <c r="D11">
+        <v>5.2941000000000002E-2</v>
       </c>
       <c r="E11">
-        <v>605</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" t="s">
-        <v>71</v>
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="F11">
+        <v>930</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <v>5.1603999999999997E-2</v>
+      </c>
+      <c r="K11">
+        <v>4.4357000000000001E-2</v>
       </c>
       <c r="L11">
-        <v>592</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>97</v>
-      </c>
-      <c r="R11" t="s">
-        <v>98</v>
+        <v>930</v>
+      </c>
+      <c r="M11">
+        <v>90.75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11">
+        <v>2.9614000000000001E-2</v>
+      </c>
+      <c r="R11">
+        <v>2.3304999999999999E-2</v>
       </c>
       <c r="S11">
-        <v>601</v>
-      </c>
-      <c r="T11" t="s">
-        <v>99</v>
-      </c>
-      <c r="W11">
-        <v>3</v>
-      </c>
-      <c r="X11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>122</v>
+        <v>957</v>
+      </c>
+      <c r="T11">
+        <v>95.66</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11">
+        <v>0.15024000000000001</v>
+      </c>
+      <c r="Y11">
+        <v>0.14951</v>
       </c>
       <c r="Z11">
-        <v>583</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S14" t="s">
-        <v>22</v>
-      </c>
-      <c r="T14" t="s">
-        <v>23</v>
-      </c>
-      <c r="W14" t="s">
-        <v>24</v>
-      </c>
-      <c r="X14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15">
-        <v>906</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15">
-        <v>930</v>
-      </c>
-      <c r="M15" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>82</v>
-      </c>
-      <c r="R15" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15">
-        <v>900</v>
-      </c>
-      <c r="T15" t="s">
-        <v>84</v>
-      </c>
-      <c r="V15" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z15">
-        <v>905</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>904</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16">
-        <v>926</v>
-      </c>
-      <c r="M16" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>85</v>
-      </c>
-      <c r="R16" t="s">
-        <v>86</v>
-      </c>
-      <c r="S16">
-        <v>911</v>
-      </c>
-      <c r="T16" t="s">
-        <v>87</v>
-      </c>
-      <c r="W16">
-        <v>2</v>
-      </c>
-      <c r="X16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z16">
-        <v>1000</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17">
-        <v>930</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17">
-        <v>930</v>
-      </c>
-      <c r="M17" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>88</v>
-      </c>
-      <c r="R17" t="s">
-        <v>89</v>
-      </c>
-      <c r="S17">
-        <v>957</v>
-      </c>
-      <c r="T17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W17">
-        <v>3</v>
-      </c>
-      <c r="X17" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z17">
         <v>1002</v>
       </c>
-      <c r="AA17" t="s">
-        <v>113</v>
+      <c r="AA11">
+        <v>69.94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>